--- a/biology/Botanique/Persicaria_hydropiper/Persicaria_hydropiper.xlsx
+++ b/biology/Botanique/Persicaria_hydropiper/Persicaria_hydropiper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Renouée Poivre d'eau
-Persicaria hydropiper (L.) Spach ou Persicaria hydropiper (L.) Delarbre[1], la Renouée poivre d'eau (basionyme Polygonum hydropiper L.) - parfois appelée curage - est une espèce de plantes herbacées de la famille des Polygonacées qui pousse dans des zones humides, éventuellement semi-immergée dans les ruisseaux, les fossés inondés.
-Son nom vient du goût fortement poivré des jeunes feuilles. Elle est utilisée au Bangladesh comme plante médicinale[2] anti-hyperglycémique[3] et comme condiment au Japon où elle est cultivée[4].
+Persicaria hydropiper (L.) Spach ou Persicaria hydropiper (L.) Delarbre, la Renouée poivre d'eau (basionyme Polygonum hydropiper L.) - parfois appelée curage - est une espèce de plantes herbacées de la famille des Polygonacées qui pousse dans des zones humides, éventuellement semi-immergée dans les ruisseaux, les fossés inondés.
+Son nom vient du goût fortement poivré des jeunes feuilles. Elle est utilisée au Bangladesh comme plante médicinale anti-hyperglycémique et comme condiment au Japon où elle est cultivée.
 </t>
         </is>
       </c>
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractéristiques
-Organes reproducteurs
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : blanc, rose
 Période de floraison : août-novembre
 Inflorescence : épi de cymes triflores
@@ -559,11 +576,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Usage alimentaires
-Elle est utilisée en cuisine japonaise sur les sashimi[5] et les amérindiens d'Amérique du nord utilisaient toutes les parties de cette plante comme condiment poivré (au début du XXe siècle, ils l'appelaient « poivre indien »)[6].
-Usages médicinaux
-La renouée poivre-d'eau était utilisée contre les maux de tête par les amérindiens d'Amérique du Nord[6].
-Dans le cadre des recherches contre le vieillissement, une publication (2017) comparant les effets de 73 fruits et légumes sur 3 modèles de glycation classe la renouée poivre d'eau en seconde position pour ses effets anti-glycation, notamment à cause de la lutéine qu'elle contient[7].
+          <t>Usage alimentaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est utilisée en cuisine japonaise sur les sashimi et les amérindiens d'Amérique du nord utilisaient toutes les parties de cette plante comme condiment poivré (au début du XXe siècle, ils l'appelaient « poivre indien »).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Persicaria_hydropiper</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Persicaria_hydropiper</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Usages médicinaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La renouée poivre-d'eau était utilisée contre les maux de tête par les amérindiens d'Amérique du Nord.
+Dans le cadre des recherches contre le vieillissement, une publication (2017) comparant les effets de 73 fruits et légumes sur 3 modèles de glycation classe la renouée poivre d'eau en seconde position pour ses effets anti-glycation, notamment à cause de la lutéine qu'elle contient.
 </t>
         </is>
       </c>
